--- a/documents/ETAT_DE_PRESENCE_AED_2025_2026.xlsx
+++ b/documents/ETAT_DE_PRESENCE_AED_2025_2026.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lyceesiledefrance-my.sharepoint.com/personal/zahardin_boukortt_monlycee_net/Documents/sauve site/github/AED-main/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{2882A88B-36BF-446D-8B24-521D28C939FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A54EEE3E-E205-44BE-A705-D95245B30901}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{2882A88B-36BF-446D-8B24-521D28C939FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70C77A54-BE95-452D-9B99-8CC7DB478E56}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="3" r:id="rId1"/>
+    <sheet name="Table" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="2025-2026" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -23,6 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Table!$1:$1</definedName>
     <definedName name="Statut" localSheetId="1">#REF!</definedName>
     <definedName name="Statut">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2025-2026'!$A$1:$J$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2454,7 +2455,7 @@
     <numFmt numFmtId="165" formatCode="###\ ###\ ###\ #####"/>
     <numFmt numFmtId="166" formatCode="[$-40C]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2540,6 +2541,12 @@
       <b/>
       <i/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2806,7 +2813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2961,35 +2968,81 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3045,12 +3098,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3064,37 +3120,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6726,14 +6751,14 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J3"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="18" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" style="18" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="18" customWidth="1"/>
     <col min="6" max="6" width="14" style="18" customWidth="1"/>
@@ -6747,46 +6772,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="57">
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="72">
         <v>45901</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="58"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="59"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="74"/>
     </row>
     <row r="4" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
@@ -6806,18 +6831,18 @@
       <c r="A5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="73" t="str">
+      <c r="B5" s="88" t="str">
         <f>IF(B4="","",VLOOKUP(B4,LISTE_EPLE[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="60" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="75" t="s">
         <v>357</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="13" t="s">
         <v>20</v>
       </c>
@@ -6827,16 +6852,16 @@
       <c r="A6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="73" t="str">
+      <c r="B6" s="88" t="str">
         <f>IF(B4="","",VLOOKUP(B4,LISTE_EPLE[],3,FALSE))</f>
         <v/>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="13" t="s">
         <v>8</v>
       </c>
@@ -6846,19 +6871,19 @@
       <c r="A7" s="43" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="73" t="str">
+      <c r="B7" s="88" t="str">
         <f>IF(B4="","",VLOOKUP(B4,LISTE_EPLE[],4,FALSE))</f>
         <v/>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="82">
+      <c r="C7" s="88"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="48">
         <f>IF(J1="","",VLOOKUP(J1,Calendrier_paie[],2,FALSE))</f>
         <v>45936</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="13" t="s">
         <v>21</v>
       </c>
@@ -6873,10 +6898,10 @@
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
       <c r="I8" s="6"/>
       <c r="J8" s="12"/>
       <c r="K8" s="14"/>
@@ -6911,64 +6936,64 @@
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="74" t="s">
+      <c r="G11" s="94"/>
+      <c r="H11" s="91" t="s">
         <v>354</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="82" t="s">
         <v>355</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="85" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="71"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="29"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="28" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="72"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="87"/>
     </row>
     <row r="14" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
@@ -7237,11 +7262,11 @@
       <c r="H36" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="I36" s="47">
+      <c r="I36" s="62">
         <f ca="1">TODAY()</f>
         <v>45903</v>
       </c>
-      <c r="J36" s="47"/>
+      <c r="J36" s="62"/>
       <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
@@ -7258,48 +7283,48 @@
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
     </row>
     <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="44"/>
     </row>
     <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="47" t="s">
         <v>602</v>
       </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="44"/>
     </row>
     <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="44"/>
     </row>
     <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="47" t="s">
         <v>603</v>
       </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="44"/>
     </row>
   </sheetData>
@@ -7309,15 +7334,6 @@
     <protectedRange sqref="A14:J42" name="Plage1"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E7:H8"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="C1:I3"/>
     <mergeCell ref="J1:J3"/>
@@ -7332,6 +7348,15 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="F11:G12"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur date" error="La date de signature doit être comprise entre le 01/09/2023 et le 31/08/2024." promptTitle="Indiquer la date de signature" sqref="I36:J36" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7342,8 +7367,8 @@
       <formula1>36526</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.27559055118110237" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="57" firstPageNumber="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="55" firstPageNumber="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LÉdité le &amp;D à &amp;T&amp;RPage &amp;P sur &amp;N</oddFooter>
   </headerFooter>

--- a/documents/ETAT_DE_PRESENCE_AED_2025_2026.xlsx
+++ b/documents/ETAT_DE_PRESENCE_AED_2025_2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lyceesiledefrance-my.sharepoint.com/personal/zahardin_boukortt_monlycee_net/Documents/sauve site/github/AED-main/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\MODELES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{2882A88B-36BF-446D-8B24-521D28C939FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70C77A54-BE95-452D-9B99-8CC7DB478E56}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DF5B450-CC77-44C4-A6D1-75587198A451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="3" state="hidden" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="767">
   <si>
     <t>OBSERVATIONS</t>
   </si>
@@ -1894,21 +1894,6 @@
   </si>
   <si>
     <t>CP-VILLE</t>
-  </si>
-  <si>
-    <r>
-      <t>(3) Joindre obligatoirement les justificatif.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Si 1 ligne pour le salarié ne suffit pas, en rajouter</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2443,7 +2428,19 @@
     <t>20010321600012</t>
   </si>
   <si>
-    <t/>
+    <r>
+      <t>(3) Joindre obligatoirement les justificatifs.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Si 1 ligne pour le salarié ne suffit pas, en rajouter</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2455,7 +2452,7 @@
     <numFmt numFmtId="165" formatCode="###\ ###\ ###\ #####"/>
     <numFmt numFmtId="166" formatCode="[$-40C]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2510,12 +2507,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2578,12 +2569,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2670,21 +2661,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2813,7 +2789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2838,9 +2814,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2917,7 +2890,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2929,7 +2902,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2944,183 +2917,178 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3504,7 +3472,7 @@
   <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3533,7 +3501,7 @@
         <v>601</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>9</v>
@@ -3547,10 +3515,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E2" s="1"/>
-      <c r="F2" s="30">
+      <c r="F2" s="29">
         <v>45748</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="30">
         <v>45789</v>
       </c>
     </row>
@@ -3568,12 +3536,12 @@
         <v>361</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="F3" s="30">
+        <v>604</v>
+      </c>
+      <c r="F3" s="29">
         <v>45778</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="30">
         <v>45817</v>
       </c>
       <c r="H3" t="s">
@@ -3594,12 +3562,12 @@
         <v>363</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="F4" s="30">
+        <v>605</v>
+      </c>
+      <c r="F4" s="29">
         <v>45809</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <v>45840</v>
       </c>
       <c r="H4" t="s">
@@ -3620,12 +3588,12 @@
         <v>365</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="F5" s="30">
+        <v>606</v>
+      </c>
+      <c r="F5" s="29">
         <v>45839</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="30">
         <v>45848</v>
       </c>
       <c r="H5" t="s">
@@ -3646,12 +3614,12 @@
         <v>367</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="F6" s="30">
+        <v>607</v>
+      </c>
+      <c r="F6" s="29">
         <v>45870</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="30">
         <v>45908</v>
       </c>
       <c r="H6" t="s">
@@ -3672,12 +3640,12 @@
         <v>369</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="F7" s="30">
+        <v>608</v>
+      </c>
+      <c r="F7" s="29">
         <v>45901</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="30">
         <v>45936</v>
       </c>
       <c r="H7" t="s">
@@ -3698,12 +3666,12 @@
         <v>371</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="F8" s="30">
+        <v>609</v>
+      </c>
+      <c r="F8" s="29">
         <v>45931</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <v>45973</v>
       </c>
       <c r="H8" t="s">
@@ -3724,13 +3692,13 @@
         <v>373</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="F9" s="30">
+        <v>610</v>
+      </c>
+      <c r="F9" s="29">
         <v>45962</v>
       </c>
-      <c r="G9" s="31">
-        <v>45994</v>
+      <c r="G9" s="30">
+        <v>45996</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -3750,12 +3718,12 @@
         <v>375</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="F10" s="30">
+        <v>611</v>
+      </c>
+      <c r="F10" s="29">
         <v>45992</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="30">
         <v>46034</v>
       </c>
       <c r="H10" t="s">
@@ -3776,13 +3744,13 @@
         <v>377</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="F11" s="30">
+        <v>612</v>
+      </c>
+      <c r="F11" s="29">
         <v>46023</v>
       </c>
-      <c r="G11" s="31">
-        <v>46057</v>
+      <c r="G11" s="30">
+        <v>46063</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3799,12 +3767,12 @@
         <v>379</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="F12" s="30">
+        <v>613</v>
+      </c>
+      <c r="F12" s="29">
         <v>46054</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <v>46092</v>
       </c>
     </row>
@@ -3822,13 +3790,13 @@
         <v>381</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="F13" s="30">
+        <v>614</v>
+      </c>
+      <c r="F13" s="29">
         <v>46082</v>
       </c>
-      <c r="G13" s="31">
-        <v>46114</v>
+      <c r="G13" s="30">
+        <v>46121</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3845,12 +3813,12 @@
         <v>383</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="F14" s="30">
+        <v>615</v>
+      </c>
+      <c r="F14" s="29">
         <v>46113</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="30">
         <v>46153</v>
       </c>
     </row>
@@ -3868,12 +3836,12 @@
         <v>383</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="F15" s="30">
+        <v>616</v>
+      </c>
+      <c r="F15" s="29">
         <v>46143</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="30">
         <v>46181</v>
       </c>
     </row>
@@ -3891,13 +3859,13 @@
         <v>363</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="F16" s="30">
+        <v>617</v>
+      </c>
+      <c r="F16" s="29">
         <v>46174</v>
       </c>
-      <c r="G16" s="31">
-        <v>46204</v>
+      <c r="G16" s="30">
+        <v>46205</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3914,12 +3882,12 @@
         <v>369</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="F17" s="30">
+        <v>618</v>
+      </c>
+      <c r="F17" s="29">
         <v>46204</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="30">
         <v>46258</v>
       </c>
     </row>
@@ -3937,12 +3905,12 @@
         <v>388</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F18" s="30">
+        <v>619</v>
+      </c>
+      <c r="F18" s="29">
         <v>46235</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="30">
         <v>46274</v>
       </c>
     </row>
@@ -3960,7 +3928,7 @@
         <v>390</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
@@ -3979,7 +3947,7 @@
         <v>392</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
@@ -3998,7 +3966,7 @@
         <v>377</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3"/>
@@ -4017,7 +3985,7 @@
         <v>395</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3"/>
@@ -4036,7 +4004,7 @@
         <v>397</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3"/>
@@ -4055,7 +4023,7 @@
         <v>399</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
@@ -4074,7 +4042,7 @@
         <v>375</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
@@ -4093,7 +4061,7 @@
         <v>383</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="3"/>
@@ -4112,7 +4080,7 @@
         <v>371</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3"/>
@@ -4131,7 +4099,7 @@
         <v>404</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3"/>
@@ -4150,7 +4118,7 @@
         <v>406</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
@@ -4169,7 +4137,7 @@
         <v>367</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3"/>
@@ -4188,7 +4156,7 @@
         <v>409</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
@@ -4207,7 +4175,7 @@
         <v>377</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="3"/>
@@ -4226,7 +4194,7 @@
         <v>399</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
@@ -4245,7 +4213,7 @@
         <v>413</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
@@ -4264,7 +4232,7 @@
         <v>415</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
@@ -4283,7 +4251,7 @@
         <v>383</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="3"/>
@@ -4302,7 +4270,7 @@
         <v>418</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
@@ -4321,7 +4289,7 @@
         <v>420</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
@@ -4340,7 +4308,7 @@
         <v>422</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
@@ -4359,7 +4327,7 @@
         <v>424</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
@@ -4378,7 +4346,7 @@
         <v>390</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="3"/>
@@ -4397,7 +4365,7 @@
         <v>427</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="3"/>
@@ -4416,7 +4384,7 @@
         <v>427</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="3"/>
@@ -4435,7 +4403,7 @@
         <v>430</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="3"/>
@@ -4454,7 +4422,7 @@
         <v>392</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
@@ -4473,7 +4441,7 @@
         <v>430</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="3"/>
@@ -4492,7 +4460,7 @@
         <v>434</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="3"/>
@@ -4511,7 +4479,7 @@
         <v>377</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="3"/>
@@ -4530,7 +4498,7 @@
         <v>437</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
@@ -4549,7 +4517,7 @@
         <v>439</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="3"/>
@@ -4568,7 +4536,7 @@
         <v>441</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
@@ -4587,7 +4555,7 @@
         <v>443</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="3"/>
@@ -4606,7 +4574,7 @@
         <v>445</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="3"/>
@@ -4625,7 +4593,7 @@
         <v>381</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="3"/>
@@ -4644,7 +4612,7 @@
         <v>448</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="3"/>
@@ -4663,7 +4631,7 @@
         <v>450</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="3"/>
@@ -4682,7 +4650,7 @@
         <v>452</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="3"/>
@@ -4701,7 +4669,7 @@
         <v>415</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="3"/>
@@ -4720,7 +4688,7 @@
         <v>455</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="3"/>
@@ -4739,7 +4707,7 @@
         <v>377</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="3"/>
@@ -4758,7 +4726,7 @@
         <v>395</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="3"/>
@@ -4777,7 +4745,7 @@
         <v>377</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="3"/>
@@ -4796,7 +4764,7 @@
         <v>460</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="3"/>
@@ -4815,7 +4783,7 @@
         <v>462</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="3"/>
@@ -4834,7 +4802,7 @@
         <v>371</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="3"/>
@@ -4853,7 +4821,7 @@
         <v>460</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="3"/>
@@ -4872,7 +4840,7 @@
         <v>466</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
@@ -4891,7 +4859,7 @@
         <v>415</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="3"/>
@@ -4910,7 +4878,7 @@
         <v>383</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="3"/>
@@ -4929,7 +4897,7 @@
         <v>367</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="3"/>
@@ -4948,7 +4916,7 @@
         <v>397</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
@@ -4967,7 +4935,7 @@
         <v>365</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="3"/>
@@ -4986,7 +4954,7 @@
         <v>473</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="3"/>
@@ -5005,7 +4973,7 @@
         <v>375</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="3"/>
@@ -5024,7 +4992,7 @@
         <v>383</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="3"/>
@@ -5043,7 +5011,7 @@
         <v>383</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="3"/>
@@ -5062,7 +5030,7 @@
         <v>478</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="3"/>
@@ -5081,7 +5049,7 @@
         <v>480</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="3"/>
@@ -5100,7 +5068,7 @@
         <v>406</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="3"/>
@@ -5119,7 +5087,7 @@
         <v>434</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="3"/>
@@ -5138,7 +5106,7 @@
         <v>484</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="3"/>
@@ -5157,7 +5125,7 @@
         <v>373</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="3"/>
@@ -5176,7 +5144,7 @@
         <v>487</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="3"/>
@@ -5195,7 +5163,7 @@
         <v>375</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="3"/>
@@ -5214,7 +5182,7 @@
         <v>490</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="3"/>
@@ -5233,7 +5201,7 @@
         <v>492</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="3"/>
@@ -5252,7 +5220,7 @@
         <v>420</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="3"/>
@@ -5271,7 +5239,7 @@
         <v>495</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="3"/>
@@ -5290,7 +5258,7 @@
         <v>497</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="3"/>
@@ -5309,7 +5277,7 @@
         <v>499</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="3"/>
@@ -5328,7 +5296,7 @@
         <v>501</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="3"/>
@@ -5347,7 +5315,7 @@
         <v>503</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="3"/>
@@ -5366,7 +5334,7 @@
         <v>379</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="3"/>
@@ -5385,7 +5353,7 @@
         <v>437</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="3"/>
@@ -5404,7 +5372,7 @@
         <v>383</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="3"/>
@@ -5423,7 +5391,7 @@
         <v>388</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="3"/>
@@ -5442,7 +5410,7 @@
         <v>508</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="3"/>
@@ -5461,7 +5429,7 @@
         <v>510</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="3"/>
@@ -5480,7 +5448,7 @@
         <v>452</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="3"/>
@@ -5499,7 +5467,7 @@
         <v>513</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="3"/>
@@ -5518,7 +5486,7 @@
         <v>515</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="3"/>
@@ -5537,7 +5505,7 @@
         <v>517</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="3"/>
@@ -5556,7 +5524,7 @@
         <v>487</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="3"/>
@@ -5575,7 +5543,7 @@
         <v>520</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="3"/>
@@ -5594,7 +5562,7 @@
         <v>522</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="3"/>
@@ -5613,7 +5581,7 @@
         <v>487</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="3"/>
@@ -5632,7 +5600,7 @@
         <v>399</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="3"/>
@@ -5651,7 +5619,7 @@
         <v>445</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="3"/>
@@ -5670,7 +5638,7 @@
         <v>517</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="3"/>
@@ -5689,7 +5657,7 @@
         <v>520</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="3"/>
@@ -5708,7 +5676,7 @@
         <v>520</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="3"/>
@@ -5727,7 +5695,7 @@
         <v>530</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="3"/>
@@ -5746,7 +5714,7 @@
         <v>445</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="3"/>
@@ -5765,7 +5733,7 @@
         <v>533</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="3"/>
@@ -5784,7 +5752,7 @@
         <v>535</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="3"/>
@@ -5803,7 +5771,7 @@
         <v>537</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="3"/>
@@ -5822,7 +5790,7 @@
         <v>439</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="3"/>
@@ -5841,7 +5809,7 @@
         <v>375</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="3"/>
@@ -5860,7 +5828,7 @@
         <v>381</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="3"/>
@@ -5879,7 +5847,7 @@
         <v>542</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="3"/>
@@ -5898,7 +5866,7 @@
         <v>409</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="3"/>
@@ -5917,7 +5885,7 @@
         <v>517</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="3"/>
@@ -5936,7 +5904,7 @@
         <v>546</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="3"/>
@@ -5955,7 +5923,7 @@
         <v>548</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="3"/>
@@ -5974,7 +5942,7 @@
         <v>367</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="3"/>
@@ -5993,7 +5961,7 @@
         <v>361</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="3"/>
@@ -6012,7 +5980,7 @@
         <v>390</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="3"/>
@@ -6031,7 +5999,7 @@
         <v>484</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="3"/>
@@ -6050,7 +6018,7 @@
         <v>515</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="3"/>
@@ -6069,7 +6037,7 @@
         <v>420</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="3"/>
@@ -6088,7 +6056,7 @@
         <v>556</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="3"/>
@@ -6107,7 +6075,7 @@
         <v>558</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="3"/>
@@ -6126,7 +6094,7 @@
         <v>515</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="3"/>
@@ -6145,7 +6113,7 @@
         <v>478</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="3"/>
@@ -6164,7 +6132,7 @@
         <v>562</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="3"/>
@@ -6183,7 +6151,7 @@
         <v>369</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="3"/>
@@ -6202,7 +6170,7 @@
         <v>371</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="3"/>
@@ -6221,7 +6189,7 @@
         <v>404</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="3"/>
@@ -6240,7 +6208,7 @@
         <v>513</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="3"/>
@@ -6259,7 +6227,7 @@
         <v>377</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="3"/>
@@ -6278,7 +6246,7 @@
         <v>517</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="3"/>
@@ -6297,7 +6265,7 @@
         <v>427</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="3"/>
@@ -6316,7 +6284,7 @@
         <v>571</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="3"/>
@@ -6335,7 +6303,7 @@
         <v>573</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="3"/>
@@ -6354,7 +6322,7 @@
         <v>415</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="3"/>
@@ -6373,7 +6341,7 @@
         <v>367</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="3"/>
@@ -6392,7 +6360,7 @@
         <v>397</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="3"/>
@@ -6411,7 +6379,7 @@
         <v>577</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="3"/>
@@ -6430,7 +6398,7 @@
         <v>579</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="3"/>
@@ -6449,7 +6417,7 @@
         <v>581</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="3"/>
@@ -6468,7 +6436,7 @@
         <v>583</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="3"/>
@@ -6487,7 +6455,7 @@
         <v>365</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="3"/>
@@ -6506,7 +6474,7 @@
         <v>383</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="3"/>
@@ -6525,7 +6493,7 @@
         <v>587</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="3"/>
@@ -6544,7 +6512,7 @@
         <v>371</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="3"/>
@@ -6563,7 +6531,7 @@
         <v>404</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="3"/>
@@ -6582,7 +6550,7 @@
         <v>424</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="3"/>
@@ -6601,7 +6569,7 @@
         <v>441</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="3"/>
@@ -6620,7 +6588,7 @@
         <v>445</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="3"/>
@@ -6639,7 +6607,7 @@
         <v>397</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="3"/>
@@ -6658,7 +6626,7 @@
         <v>452</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="3"/>
@@ -6677,7 +6645,7 @@
         <v>397</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="3"/>
@@ -6696,7 +6664,7 @@
         <v>448</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="3"/>
@@ -6715,7 +6683,7 @@
         <v>513</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="3"/>
@@ -6731,7 +6699,6 @@
       <c r="G166" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="3">
@@ -6750,180 +6717,175 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection activeCell="J1" sqref="J1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="14" style="18" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="42.5703125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="32.42578125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="18" customWidth="1"/>
-    <col min="12" max="12" width="45.7109375" style="18" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="18"/>
+    <col min="1" max="1" width="29.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="14" style="17" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="42.5703125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="35.5703125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="32.42578125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="45.7109375" style="17" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="55" t="s">
         <v>353</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="72">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="63">
         <v>45901</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="73"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:12" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="74"/>
-    </row>
-    <row r="4" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="65"/>
+    </row>
+    <row r="4" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="12"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="88" t="str">
+      <c r="B5" s="91" t="str">
         <f>IF(B4="","",VLOOKUP(B4,LISTE_EPLE[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="75" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="66" t="s">
         <v>357</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="13" t="s">
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="41"/>
+      <c r="J5" s="39"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="88" t="str">
+      <c r="B6" s="91" t="str">
         <f>IF(B4="","",VLOOKUP(B4,LISTE_EPLE[],3,FALSE))</f>
         <v/>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="13" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="41"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="92" t="s">
         <v>359</v>
       </c>
-      <c r="B7" s="88" t="str">
+      <c r="B7" s="91" t="str">
         <f>IF(B4="","",VLOOKUP(B4,LISTE_EPLE[],4,FALSE))</f>
         <v/>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="48">
+      <c r="C7" s="91"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="42">
         <f>IF(J1="","",VLOOKUP(J1,Calendrier_paie[],2,FALSE))</f>
         <v>45936</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="13" t="s">
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="41"/>
+      <c r="J7" s="39"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>604</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>767</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="14"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="13"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="25"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -6933,399 +6895,400 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="12"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="93" t="s">
+      <c r="F11" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="94"/>
-      <c r="H11" s="91" t="s">
+      <c r="G11" s="82"/>
+      <c r="H11" s="79" t="s">
         <v>354</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="73" t="s">
         <v>355</v>
       </c>
-      <c r="J11" s="85" t="s">
+      <c r="J11" s="76" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="86"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="28" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="92"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="87"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
     </row>
     <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
     </row>
     <row r="23" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
     </row>
     <row r="24" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
     </row>
     <row r="26" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
     </row>
     <row r="27" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
     </row>
     <row r="29" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
     </row>
     <row r="30" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
     </row>
     <row r="31" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
     </row>
     <row r="32" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
     </row>
     <row r="33" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D35" s="19"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="24"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="23"/>
     </row>
     <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="16"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="39" t="s">
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="I36" s="62">
+      <c r="I36" s="54">
         <f ca="1">TODAY()</f>
-        <v>45903</v>
-      </c>
-      <c r="J36" s="62"/>
+        <v>45922</v>
+      </c>
+      <c r="J36" s="54"/>
       <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="16"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
     </row>
     <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="44"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="40"/>
     </row>
     <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="41" t="s">
+        <v>766</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="40"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="93" t="s">
         <v>602</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="44"/>
-    </row>
-    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="44"/>
-    </row>
-    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="47" t="s">
-        <v>603</v>
-      </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="44"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" insertRows="0" deleteRows="0" selectLockedCells="1"/>
@@ -7333,7 +7296,7 @@
     <protectedRange sqref="B4" name="Plage2"/>
     <protectedRange sqref="A14:J42" name="Plage1"/>
   </protectedRanges>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="C1:I3"/>
     <mergeCell ref="J1:J3"/>
@@ -7343,13 +7306,10 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="J11:J13"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="F11:G12"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="E7:H8"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A38:E38"/>
@@ -7357,6 +7317,10 @@
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:F42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erreur date" error="La date de signature doit être comprise entre le 01/09/2023 et le 31/08/2024." promptTitle="Indiquer la date de signature" sqref="I36:J36" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7377,7 +7341,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Saisie invalide" error="Mois possibles :_x000a_septembre-23_x000a_octobre-23_x000a_novembre-23_x000a_décembre-23_x000a_janvier-24_x000a_février-24_x000a_mars-24_x000a_avril-24_x000a_mai-24_x000a_juin-24_x000a_juillet-24_x000a_août-24_x000a_" promptTitle="Mois de paie" prompt="Indiquer le mois de paie concerné par cet état." xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
-            <xm:f>Table!$F$2:$F$13</xm:f>
+            <xm:f>Table!$F$2:$F$18</xm:f>
           </x14:formula1>
           <xm:sqref>J1:J3</xm:sqref>
         </x14:dataValidation>
